--- a/templates/DesignTemplate.xlsx
+++ b/templates/DesignTemplate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12060"/>
   </bookViews>
   <sheets>
     <sheet name="RoleInfo" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>role_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此配置表的一些描述说明,不填也可以</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字段备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,6 +52,14 @@
   </si>
   <si>
     <t>以#起始的sheet不会生成代码影射表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#注释字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此配置表的一些描述说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,49 +465,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>6</v>
+      <c r="C5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -517,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -525,7 +533,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DesignTemplate.xlsx
+++ b/templates/DesignTemplate.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>role_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,27 @@
   </si>
   <si>
     <t>此配置表的一些描述说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:物攻
+2:物防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role_story</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int;language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string;language</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -110,12 +131,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -465,24 +489,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -492,26 +518,47 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/templates/DesignTemplate.xlsx
+++ b/templates/DesignTemplate.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>role_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,10 +56,6 @@
   </si>
   <si>
     <t>#注释字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此配置表的一些描述说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -81,6 +77,18 @@
   </si>
   <si>
     <t>string;language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#首列为每行数据的概要</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首行为此配置表的描述说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,75 +497,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="F5">
         <v>1</v>
       </c>
     </row>

--- a/templates/DesignTemplate.xlsx
+++ b/templates/DesignTemplate.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>role_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,6 +89,19 @@
   </si>
   <si>
     <t>角色1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>init_item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化物品
+数组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -510,14 +523,16 @@
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -536,8 +551,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -550,16 +568,22 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>15</v>
       </c>

--- a/templates/DesignTemplate.xlsx
+++ b/templates/DesignTemplate.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>role_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,15 +47,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MarsPig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>以#起始的sheet不会生成代码影射表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#注释字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -80,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#首列为每行数据的概要</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首行为此配置表的描述说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +90,27 @@
   <si>
     <t>初始化物品
 数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#注释字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#此列为每行数据的概要
+#此行为每列字段的说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#此行为每列字段的类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#此行为每列字段的名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MarsPig1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,8 +132,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -134,6 +149,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -152,15 +173,21 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -513,12 +540,15 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -527,35 +557,29 @@
     <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="33">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -563,35 +587,47 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -612,14 +648,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
